--- a/cmip6/models/bcc-csm2-mr/cmip6_bcc_bcc-csm2-mr_ocean.xlsx
+++ b/cmip6/models/bcc-csm2-mr/cmip6_bcc_bcc-csm2-mr_ocean.xlsx
@@ -46,7 +46,7 @@
     <t>BCC-CSM2-MR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean</t>

--- a/cmip6/models/bcc-csm2-mr/cmip6_bcc_bcc-csm2-mr_ocean.xlsx
+++ b/cmip6/models/bcc-csm2-mr/cmip6_bcc_bcc-csm2-mr_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="827">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,6 +166,9 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
+    <t>Oceanic general circulation model MOM4-L40</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -196,6 +199,10 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>1 longitude x 1/3 latitude between 10S-10N;_x000D_
+1 longitude x 1 latitude  from 30S and 30N to pole, respectively</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -214,10 +221,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -235,15 +242,15 @@
     <t>cmip6.ocean.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Boussinesq</t>
+  </si>
+  <si>
     <t>Primitive equations</t>
   </si>
   <si>
     <t>Non-hydrostatic</t>
   </si>
   <si>
-    <t>Boussinesq</t>
-  </si>
-  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -274,7 +281,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>SSH: Sea Surface Height</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -298,6 +305,9 @@
     <t>cmip6.ocean.key_properties.seawater_properties.eos_type</t>
   </si>
   <si>
+    <t>Other: mcdougall et al.</t>
+  </si>
+  <si>
     <t>Linear</t>
   </si>
   <si>
@@ -373,6 +383,9 @@
     <t>cmip6.ocean.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
+    <t>Other: fixed</t>
+  </si>
+  <si>
     <t>1.2.1.6 *</t>
   </si>
   <si>
@@ -430,7 +443,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM</t>
+    <t>LGM: Last Glacial Maximum</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -496,6 +509,9 @@
     <t>cmip6.ocean.key_properties.nonoceanic_waters.isolated_seas</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -506,6 +522,9 @@
   </si>
   <si>
     <t>cmip6.ocean.key_properties.nonoceanic_waters.river_mouth</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -845,16 +864,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4</t>
-  </si>
-  <si>
-    <t>Isopycnic - other</t>
+    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - other: Other density-based coordinate</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -905,6 +924,9 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.type</t>
   </si>
   <si>
+    <t>Other: pole rotation</t>
+  </si>
+  <si>
     <t>Lat-lon</t>
   </si>
   <si>
@@ -947,6 +969,9 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
+    <t>Other: finite differences</t>
+  </si>
+  <si>
     <t>Finite difference</t>
   </si>
   <si>
@@ -998,133 +1023,139 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
+    <t>None: No diurnal cycle in ocean</t>
+  </si>
+  <si>
+    <t>Via coupling: Diurnal cycle via coupling frequency</t>
+  </si>
+  <si>
+    <t>Specific treatment: Specific treament</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of tracers time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Tracers time stepping scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
+  </si>
+  <si>
+    <t>Other: leap-frog + periodic euler backward solver</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
+    <t>Forward-backward: Forward-backward scheme</t>
+  </si>
+  <si>
+    <t>Forward operator: Forward operator scheme</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Time Step</t>
+  </si>
+  <si>
+    <t>Tracers time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics in ocean</t>
+  </si>
+  <si>
+    <t>3.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
+  </si>
+  <si>
+    <t>Preconditioned conjugate gradient</t>
+  </si>
+  <si>
+    <t>Sub cyling: Sub cycling relative to tracers</t>
+  </si>
+  <si>
+    <t>3.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Baroclinic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Barotropic</t>
+  </si>
+  <si>
+    <t>Barotropic time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Time splitting method</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Via coupling</t>
-  </si>
-  <si>
-    <t>Specific treatment</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of tracers time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Tracers time stepping scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2</t>
-  </si>
-  <si>
-    <t>AM3-LF</t>
-  </si>
-  <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
-    <t>Forward operator</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Time Step</t>
-  </si>
-  <si>
-    <t>Tracers time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics in ocean</t>
-  </si>
-  <si>
-    <t>3.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics type</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
-  </si>
-  <si>
-    <t>Preconditioned conjugate gradient</t>
-  </si>
-  <si>
-    <t>Sub cyling</t>
-  </si>
-  <si>
-    <t>3.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Baroclinic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Barotropic</t>
-  </si>
-  <si>
-    <t>Barotropic time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Splitting</t>
-  </si>
-  <si>
-    <t>Time splitting method</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
-  </si>
-  <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1220,6 +1251,9 @@
     <t>cmip6.ocean.advection.momentum.scheme_name</t>
   </si>
   <si>
+    <t>Swedy’s tracer-based third order advection scheme</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
@@ -1286,6 +1320,9 @@
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
   </si>
   <si>
+    <t>Sweby</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
@@ -1385,10 +1422,13 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>Eddy active</t>
-  </si>
-  <si>
-    <t>Eddy admitting</t>
+    <t>None: No transient eddies in ocean</t>
+  </si>
+  <si>
+    <t>Eddy active: Full resolution of eddies</t>
+  </si>
+  <si>
+    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1436,10 +1476,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1454,10 +1494,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Higher order</t>
+    <t>Second order: Second order</t>
+  </si>
+  <si>
+    <t>Higher order: Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1679,7 +1719,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM</t>
+    <t>GM: Gent &amp; McWilliams</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -1784,15 +1824,15 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
   </si>
   <si>
+    <t>Turbulent closure - KPP</t>
+  </si>
+  <si>
     <t>Constant value</t>
   </si>
   <si>
     <t>Turbulent closure - TKE</t>
   </si>
   <si>
-    <t>Turbulent closure - KPP</t>
-  </si>
-  <si>
     <t>Turbulent closure - Mellor-Yamada</t>
   </si>
   <si>
@@ -1841,6 +1881,9 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.background</t>
   </si>
   <si>
+    <t>Background vertical viscosity:1e-4m2s-1</t>
+  </si>
+  <si>
     <t>6.1.4</t>
   </si>
   <si>
@@ -1907,12 +1950,12 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
   </si>
   <si>
+    <t>Enhanced vertical diffusion</t>
+  </si>
+  <si>
     <t>Non-penetrative convective adjustment</t>
   </si>
   <si>
-    <t>Enhanced vertical diffusion</t>
-  </si>
-  <si>
     <t>Included in turbulence closure</t>
   </si>
   <si>
@@ -1928,6 +1971,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
   </si>
   <si>
+    <t>Barotropic tides</t>
+  </si>
+  <si>
     <t>6.1.5.3 *</t>
   </si>
   <si>
@@ -1970,6 +2016,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.type</t>
   </si>
   <si>
+    <t>Other: richardson number dependent (pp)</t>
+  </si>
+  <si>
     <t>Turbulent closure / TKE</t>
   </si>
   <si>
@@ -2003,6 +2052,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.background</t>
   </si>
   <si>
+    <t>Background vertical viscosity:1e-4  m^2/s</t>
+  </si>
+  <si>
     <t>6.1.7</t>
   </si>
   <si>
@@ -2093,6 +2145,9 @@
     <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
   </si>
   <si>
+    <t>Other: linear split-explicit</t>
+  </si>
+  <si>
     <t>Linear implicit</t>
   </si>
   <si>
@@ -2156,6 +2211,9 @@
     <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.type_of_bbl</t>
   </si>
   <si>
+    <t>Other: advective</t>
+  </si>
+  <si>
     <t>Diffusive</t>
   </si>
   <si>
@@ -2354,13 +2412,13 @@
     <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.scheme</t>
   </si>
   <si>
+    <t>3 extinction depth</t>
+  </si>
+  <si>
     <t>1 extinction depth</t>
   </si>
   <si>
     <t>2 extinction depth</t>
-  </si>
-  <si>
-    <t>3 extinction depth</t>
   </si>
   <si>
     <t>8.1.4.2 *</t>
@@ -3101,20 +3159,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3125,10 +3183,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3136,10 +3194,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3147,15 +3205,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3163,10 +3221,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3174,10 +3232,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3185,10 +3243,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3196,26 +3254,28 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3223,26 +3283,28 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3250,15 +3312,15 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="178" customHeight="1">
@@ -3266,10 +3328,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3277,15 +3339,15 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="178" customHeight="1">
@@ -3293,10 +3355,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3304,15 +3366,15 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
@@ -3320,179 +3382,183 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11"/>
       <c r="AA48" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>794</v>
+      </c>
       <c r="AA64" s="6" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3500,15 +3566,15 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
@@ -3516,10 +3582,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3527,15 +3593,15 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3543,88 +3609,88 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3632,10 +3698,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -3765,7 +3831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD198"/>
+  <dimension ref="A1:XFD202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3810,14 +3876,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3825,15 +3893,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -3841,10 +3909,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3852,71 +3920,75 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -3925,37 +3997,39 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -3964,230 +4038,330 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AB31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AD31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="AE31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="AF31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="AG31" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+      <c r="AH31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="24" customHeight="1">
+      <c r="A37" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="B37" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="38" spans="1:34" ht="24" customHeight="1">
+      <c r="B38" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    <row r="40" spans="1:34" ht="24" customHeight="1">
+      <c r="A40" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
+    <row r="41" spans="1:34" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AB38" s="6" t="s">
+      <c r="C41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AC38" s="6" t="s">
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1">
+      <c r="B42" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AA42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AB42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AF38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="AC42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="AD42" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="AE42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="AF42" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="24" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="9" t="s">
+    </row>
+    <row r="45" spans="1:34" ht="24" customHeight="1">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
+    </row>
+    <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="B54" s="11"/>
       <c r="AA54" s="6" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:28" ht="24" customHeight="1">
+      <c r="B58" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
+      <c r="AA58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="60" spans="1:28" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>123</v>
@@ -4199,92 +4373,94 @@
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="B62" s="11"/>
     </row>
+    <row r="64" spans="1:28" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>126</v>
+      <c r="A65" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="A69" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="10" t="s">
+    </row>
+    <row r="70" spans="1:32" ht="24" customHeight="1">
+      <c r="B70" s="13" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD70" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF70" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="24" customHeight="1">
+      <c r="B74" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD74" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="AE74" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
+      <c r="AF74" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>144</v>
@@ -4294,143 +4470,149 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="178" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B78" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="24" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>147</v>
+      <c r="A81" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
+      <c r="B82" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="178" customHeight="1">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>151</v>
+      <c r="B86" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="9" t="s">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
+      <c r="B90" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="B91" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>158</v>
+      <c r="B94" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="14" t="s">
+      <c r="B95" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="178" customHeight="1">
+      <c r="B96" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="178" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B99" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>165</v>
+      <c r="B100" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="178" customHeight="1">
+      <c r="B101" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="10" t="s">
+      <c r="A104" s="12" t="s">
         <v>167</v>
       </c>
+      <c r="B104" s="12" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="13" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -4438,10 +4620,10 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -4449,10 +4631,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -4460,61 +4642,61 @@
         <v>44</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B113" s="11"/>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>177</v>
+      <c r="B117" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="B118" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>181</v>
+      <c r="A121" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="13" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -4522,10 +4704,10 @@
         <v>44</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -4533,10 +4715,10 @@
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -4544,10 +4726,10 @@
         <v>44</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -4555,21 +4737,21 @@
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -4577,21 +4759,21 @@
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="A136" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -4599,21 +4781,21 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="14" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -4621,310 +4803,332 @@
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="11"/>
     </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="A148" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>208</v>
+      <c r="A149" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>211</v>
-      </c>
+      <c r="B150" s="11"/>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="B154" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="A156" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="A157" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>215</v>
+      <c r="B157" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="14" t="s">
+      <c r="B158" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="178" customHeight="1">
+      <c r="B159" s="11"/>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1">
+      <c r="A161" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="A162" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C158" s="10" t="s">
+      <c r="B162" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="B163" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="B164" s="11"/>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
+      <c r="A166" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="24" customHeight="1">
+      <c r="A167" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="B168" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="24" customHeight="1">
+      <c r="B169" s="11"/>
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1">
+      <c r="A171" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="A172" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="B173" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24" customHeight="1">
+      <c r="B174" s="11"/>
+    </row>
+    <row r="177" spans="1:32" ht="24" customHeight="1">
+      <c r="A177" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" ht="24" customHeight="1">
+      <c r="B178" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32" ht="24" customHeight="1">
+      <c r="A180" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11"/>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="14" t="s">
+    <row r="181" spans="1:32" ht="24" customHeight="1">
+      <c r="A181" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="14" t="s">
+      <c r="B181" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="24" customHeight="1">
+      <c r="B182" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" ht="178" customHeight="1">
+      <c r="B183" s="11"/>
+    </row>
+    <row r="185" spans="1:32" ht="24" customHeight="1">
+      <c r="A185" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="24" customHeight="1">
+      <c r="A186" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="24" customHeight="1">
+      <c r="B187" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" ht="24" customHeight="1">
+      <c r="B188" s="11"/>
+      <c r="AA188" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB188" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC188" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD188" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE188" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF188" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" ht="24" customHeight="1">
+      <c r="A190" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="191" spans="1:32" ht="24" customHeight="1">
+      <c r="A191" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
+      <c r="B191" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="24" customHeight="1">
+      <c r="B192" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="24" customHeight="1">
+      <c r="B193" s="11"/>
+    </row>
+    <row r="195" spans="1:3" ht="24" customHeight="1">
+      <c r="A195" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="24" customHeight="1">
+      <c r="A196" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:32" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
-    </row>
-    <row r="181" spans="1:32" ht="24" customHeight="1">
-      <c r="A181" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:32" ht="24" customHeight="1">
-      <c r="A182" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="1:32" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:32" ht="24" customHeight="1">
-      <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB184" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC184" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD184" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE184" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF184" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" spans="1:32" ht="24" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="187" spans="1:32" ht="24" customHeight="1">
-      <c r="A187" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:32" ht="24" customHeight="1">
-      <c r="B189" s="11"/>
-    </row>
-    <row r="191" spans="1:32" ht="24" customHeight="1">
-      <c r="A191" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="192" spans="1:32" ht="24" customHeight="1">
-      <c r="A192" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="24" customHeight="1">
-      <c r="B193" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="24" customHeight="1">
-      <c r="B194" s="11"/>
-    </row>
-    <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>250</v>
+      <c r="B196" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="A197" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>252</v>
+      <c r="B197" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="B198" s="11"/>
     </row>
+    <row r="200" spans="1:3" ht="24" customHeight="1">
+      <c r="A200" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="24" customHeight="1">
+      <c r="A201" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="24" customHeight="1">
+      <c r="B202" s="11"/>
+    </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="22">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
@@ -4934,11 +5138,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AH30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AF38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AH31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AH34</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AB42</formula1>
+      <formula1>AA42:AF42</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>AA46:AB46</formula1>
@@ -4949,37 +5162,40 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
       <formula1>AA54:AB54</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>AA58:AB58</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>AA74:AF74</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AF184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B188">
+      <formula1>AA188:AF188</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B202">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5003,20 +5219,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5027,10 +5243,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5038,10 +5254,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5049,15 +5265,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5065,98 +5281,98 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5164,123 +5380,127 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5321,20 +5541,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5345,10 +5565,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5356,10 +5576,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5367,15 +5587,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -5383,114 +5603,116 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>340</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5498,111 +5720,111 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5610,68 +5832,68 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5679,23 +5901,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5703,10 +5925,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5759,20 +5981,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5783,10 +6005,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5794,10 +6016,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5805,15 +6027,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5821,51 +6043,53 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5873,32 +6097,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5906,34 +6132,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5941,43 +6167,45 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5985,7 +6213,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -5996,32 +6224,34 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6032,27 +6262,27 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6060,10 +6290,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6071,20 +6301,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6095,36 +6325,40 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6171,20 +6405,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6195,10 +6429,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6206,10 +6440,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -6217,15 +6451,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
@@ -6233,217 +6467,217 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>464</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6451,10 +6685,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6462,10 +6696,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6473,10 +6707,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6484,10 +6718,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6495,21 +6729,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6517,34 +6751,34 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6552,21 +6786,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6574,186 +6808,186 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6761,10 +6995,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6772,10 +7006,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6783,21 +7017,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6805,21 +7039,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6827,62 +7061,62 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6890,10 +7124,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6901,10 +7135,10 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
@@ -6912,10 +7146,10 @@
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6923,10 +7157,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7009,20 +7243,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7033,10 +7267,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7044,10 +7278,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7055,15 +7289,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7071,34 +7305,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7106,83 +7340,85 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>598</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7190,21 +7426,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7212,10 +7448,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7223,94 +7459,98 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>598</v>
+      </c>
       <c r="AA47" s="6" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7318,21 +7558,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7340,10 +7580,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7351,68 +7591,72 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>640</v>
+      </c>
       <c r="AA67" s="6" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7420,32 +7664,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7453,21 +7699,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7475,77 +7721,79 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>662</v>
+      </c>
       <c r="AA87" s="6" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="AG87" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7553,21 +7801,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7575,10 +7823,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7586,88 +7834,92 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B106" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" ht="24" customHeight="1">
+      <c r="B107" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="AA107" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB107" s="6" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="107" spans="1:33" ht="24" customHeight="1">
-      <c r="B107" s="11"/>
-      <c r="AA107" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="AB107" s="6" t="s">
-        <v>647</v>
-      </c>
       <c r="AC107" s="6" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7675,10 +7927,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7686,10 +7938,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7697,10 +7949,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7708,14 +7960,16 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>674</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="15">
@@ -7787,20 +8041,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7811,10 +8065,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7822,10 +8076,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7833,15 +8087,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7849,80 +8103,82 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>705</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7930,23 +8186,23 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
@@ -7954,15 +8210,15 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="178" customHeight="1">
@@ -7970,52 +8226,54 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>727</v>
+      </c>
       <c r="AA36" s="6" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8023,10 +8281,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8034,15 +8292,15 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">

--- a/cmip6/models/bcc-csm2-mr/cmip6_bcc_bcc-csm2-mr_ocean.xlsx
+++ b/cmip6/models/bcc-csm2-mr/cmip6_bcc_bcc-csm2-mr_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="808">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,9 +166,6 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
-    <t>Oceanic general circulation model MOM4-L40</t>
-  </si>
-  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -199,10 +196,6 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1 longitude x 1/3 latitude between 10S-10N;_x000D_
-1 longitude x 1 latitude  from 30S and 30N to pole, respectively</t>
-  </si>
-  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -221,10 +214,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>slab ocean</t>
-  </si>
-  <si>
-    <t>mixed layer ocean</t>
+    <t>Slab ocean</t>
+  </si>
+  <si>
+    <t>Mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -242,15 +235,15 @@
     <t>cmip6.ocean.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Primitive equations</t>
+  </si>
+  <si>
+    <t>Non-hydrostatic</t>
+  </si>
+  <si>
     <t>Boussinesq</t>
   </si>
   <si>
-    <t>Primitive equations</t>
-  </si>
-  <si>
-    <t>Non-hydrostatic</t>
-  </si>
-  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -281,7 +274,7 @@
     <t>W-velocity</t>
   </si>
   <si>
-    <t>SSH: Sea Surface Height</t>
+    <t>SSH</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -305,9 +298,6 @@
     <t>cmip6.ocean.key_properties.seawater_properties.eos_type</t>
   </si>
   <si>
-    <t>Other: mcdougall et al.</t>
-  </si>
-  <si>
     <t>Linear</t>
   </si>
   <si>
@@ -383,9 +373,6 @@
     <t>cmip6.ocean.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>Other: fixed</t>
-  </si>
-  <si>
     <t>1.2.1.6 *</t>
   </si>
   <si>
@@ -443,7 +430,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM: Last Glacial Maximum</t>
+    <t>LGM</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -509,9 +496,6 @@
     <t>cmip6.ocean.key_properties.nonoceanic_waters.isolated_seas</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -522,9 +506,6 @@
   </si>
   <si>
     <t>cmip6.ocean.key_properties.nonoceanic_waters.river_mouth</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -864,16 +845,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
-  </si>
-  <si>
-    <t>Isopycnic - other: Other density-based coordinate</t>
+    <t>Isopycnic - sigma 0</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4</t>
+  </si>
+  <si>
+    <t>Isopycnic - other</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -924,9 +905,6 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.type</t>
   </si>
   <si>
-    <t>Other: pole rotation</t>
-  </si>
-  <si>
     <t>Lat-lon</t>
   </si>
   <si>
@@ -969,9 +947,6 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
-    <t>Other: finite differences</t>
-  </si>
-  <si>
     <t>Finite difference</t>
   </si>
   <si>
@@ -1023,13 +998,13 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
-    <t>None: No diurnal cycle in ocean</t>
-  </si>
-  <si>
-    <t>Via coupling: Diurnal cycle via coupling frequency</t>
-  </si>
-  <si>
-    <t>Specific treatment: Specific treament</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Via coupling</t>
+  </si>
+  <si>
+    <t>Specific treatment</t>
   </si>
   <si>
     <t>3.2.1</t>
@@ -1050,28 +1025,25 @@
     <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
   </si>
   <si>
-    <t>Other: leap-frog + periodic euler backward solver</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector: Predictor-corrector scheme</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
-  </si>
-  <si>
-    <t>AM3-LF: AM3-LF such as used in ROMS</t>
-  </si>
-  <si>
-    <t>Forward-backward: Forward-backward scheme</t>
-  </si>
-  <si>
-    <t>Forward operator: Forward operator scheme</t>
+    <t>Leap-frog + Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2</t>
+  </si>
+  <si>
+    <t>AM3-LF</t>
+  </si>
+  <si>
+    <t>Forward-backward</t>
+  </si>
+  <si>
+    <t>Forward operator</t>
   </si>
   <si>
     <t>3.2.1.2 *</t>
@@ -1107,7 +1079,7 @@
     <t>Preconditioned conjugate gradient</t>
   </si>
   <si>
-    <t>Sub cyling: Sub cycling relative to tracers</t>
+    <t>Sub cyling</t>
   </si>
   <si>
     <t>3.3.1.2 *</t>
@@ -1149,13 +1121,10 @@
     <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>split explicit</t>
-  </si>
-  <si>
-    <t>implicit</t>
+    <t>Split explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1251,9 +1220,6 @@
     <t>cmip6.ocean.advection.momentum.scheme_name</t>
   </si>
   <si>
-    <t>Swedy’s tracer-based third order advection scheme</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
@@ -1320,9 +1286,6 @@
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
   </si>
   <si>
-    <t>Sweby</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
@@ -1422,13 +1385,10 @@
     <t>cmip6.ocean.lateral_physics.scheme</t>
   </si>
   <si>
-    <t>None: No transient eddies in ocean</t>
-  </si>
-  <si>
-    <t>Eddy active: Full resolution of eddies</t>
-  </si>
-  <si>
-    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
+    <t>Eddy active</t>
+  </si>
+  <si>
+    <t>Eddy admitting</t>
   </si>
   <si>
     <t>5.1.2</t>
@@ -1476,10 +1436,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Harmonic: Second order</t>
-  </si>
-  <si>
-    <t>Bi-harmonic: Fourth order</t>
+    <t>Harmonic</t>
+  </si>
+  <si>
+    <t>Bi-harmonic</t>
   </si>
   <si>
     <t>5.1.2.3 *</t>
@@ -1494,10 +1454,10 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order: Second order</t>
-  </si>
-  <si>
-    <t>Higher order: Higher order</t>
+    <t>Second order</t>
+  </si>
+  <si>
+    <t>Higher order</t>
   </si>
   <si>
     <t>Flux limiter</t>
@@ -1719,7 +1679,7 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM: Gent &amp; McWilliams</t>
+    <t>GM</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.4.2 </t>
@@ -1824,15 +1784,15 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
   </si>
   <si>
+    <t>Constant value</t>
+  </si>
+  <si>
+    <t>Turbulent closure - TKE</t>
+  </si>
+  <si>
     <t>Turbulent closure - KPP</t>
   </si>
   <si>
-    <t>Constant value</t>
-  </si>
-  <si>
-    <t>Turbulent closure - TKE</t>
-  </si>
-  <si>
     <t>Turbulent closure - Mellor-Yamada</t>
   </si>
   <si>
@@ -1881,9 +1841,6 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.background</t>
   </si>
   <si>
-    <t>Background vertical viscosity:1e-4m2s-1</t>
-  </si>
-  <si>
     <t>6.1.4</t>
   </si>
   <si>
@@ -1950,12 +1907,12 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
   </si>
   <si>
+    <t>Non-penetrative convective adjustment</t>
+  </si>
+  <si>
     <t>Enhanced vertical diffusion</t>
   </si>
   <si>
-    <t>Non-penetrative convective adjustment</t>
-  </si>
-  <si>
     <t>Included in turbulence closure</t>
   </si>
   <si>
@@ -1971,9 +1928,6 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
   </si>
   <si>
-    <t>Barotropic tides</t>
-  </si>
-  <si>
     <t>6.1.5.3 *</t>
   </si>
   <si>
@@ -2016,9 +1970,6 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.type</t>
   </si>
   <si>
-    <t>Other: richardson number dependent (pp)</t>
-  </si>
-  <si>
     <t>Turbulent closure / TKE</t>
   </si>
   <si>
@@ -2052,9 +2003,6 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.background</t>
   </si>
   <si>
-    <t>Background vertical viscosity:1e-4  m^2/s</t>
-  </si>
-  <si>
     <t>6.1.7</t>
   </si>
   <si>
@@ -2145,9 +2093,6 @@
     <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
   </si>
   <si>
-    <t>Other: linear split-explicit</t>
-  </si>
-  <si>
     <t>Linear implicit</t>
   </si>
   <si>
@@ -2211,9 +2156,6 @@
     <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.type_of_bbl</t>
   </si>
   <si>
-    <t>Other: advective</t>
-  </si>
-  <si>
     <t>Diffusive</t>
   </si>
   <si>
@@ -2412,13 +2354,13 @@
     <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.scheme</t>
   </si>
   <si>
+    <t>1 extinction depth</t>
+  </si>
+  <si>
+    <t>2 extinction depth</t>
+  </si>
+  <si>
     <t>3 extinction depth</t>
-  </si>
-  <si>
-    <t>1 extinction depth</t>
-  </si>
-  <si>
-    <t>2 extinction depth</t>
   </si>
   <si>
     <t>8.1.4.2 *</t>
@@ -3159,20 +3101,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3183,10 +3125,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3194,10 +3136,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3205,15 +3147,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3221,10 +3163,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3232,10 +3174,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3243,10 +3185,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3254,28 +3196,26 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11" t="s">
-        <v>161</v>
-      </c>
+      <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3283,28 +3223,26 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="178" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3312,15 +3250,15 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="178" customHeight="1">
@@ -3328,10 +3266,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3339,15 +3277,15 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="178" customHeight="1">
@@ -3355,10 +3293,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3366,15 +3304,15 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
@@ -3382,183 +3320,179 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11"/>
       <c r="AA48" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="B64" s="11" t="s">
-        <v>794</v>
-      </c>
+      <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3566,15 +3500,15 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
@@ -3582,10 +3516,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3593,15 +3527,15 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3609,88 +3543,88 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3698,10 +3632,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -3831,7 +3765,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD202"/>
+  <dimension ref="A1:XFD198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3876,16 +3810,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3893,15 +3825,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -3909,10 +3841,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3920,75 +3852,71 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:34" ht="24" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="AA20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="AB20" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="AC20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AA20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -3997,39 +3925,37 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -4038,330 +3964,230 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="11"/>
+      <c r="AA30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AA30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AD30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AE30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AF30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AG30" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AH30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="24" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="B33" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AH30" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH31" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="24" customHeight="1">
-      <c r="B32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF32" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH32" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" ht="24" customHeight="1">
-      <c r="B33" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH33" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" ht="24" customHeight="1">
-      <c r="B34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH34" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" ht="24" customHeight="1">
-      <c r="A37" s="12" t="s">
+    </row>
+    <row r="34" spans="1:32" ht="24" customHeight="1">
+      <c r="B34" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="12" t="s">
+    </row>
+    <row r="36" spans="1:32" ht="24" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:34" ht="24" customHeight="1">
-      <c r="B38" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="24" customHeight="1">
+    <row r="37" spans="1:32" ht="24" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="24" customHeight="1">
+      <c r="B38" s="11"/>
+      <c r="AA38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" ht="24" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" ht="24" customHeight="1">
-      <c r="B42" s="11" t="s">
-        <v>93</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="24" customHeight="1">
+      <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC42" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD42" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" ht="24" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" ht="24" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" ht="24" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" ht="24" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="B54" s="11"/>
       <c r="AA54" s="6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA58" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB58" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="B58" s="11"/>
     </row>
     <row r="60" spans="1:28" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>123</v>
@@ -4373,94 +4199,92 @@
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="B62" s="11"/>
     </row>
-    <row r="64" spans="1:28" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
+    <row r="65" spans="1:32" ht="24" customHeight="1">
+      <c r="A65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="10" t="s">
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="B66" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="10" t="s">
+    </row>
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B68" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="C69" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="13" t="s">
-        <v>131</v>
+      <c r="B70" s="11"/>
+      <c r="AA70" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF70" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA74" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB74" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC74" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD74" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE74" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF74" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="B74" s="11"/>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>144</v>
@@ -4470,149 +4294,143 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
+      <c r="B78" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="178" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="A81" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="14" t="s">
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="178" customHeight="1">
+    <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B86" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="A89" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="C90" s="10" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
+      <c r="B91" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="178" customHeight="1">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="178" customHeight="1">
-      <c r="B96" s="11" t="s">
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="B96" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="178" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
+      <c r="B100" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="9" t="s">
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="14" t="s">
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="178" customHeight="1">
-      <c r="B101" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="12" t="s">
+      <c r="C104" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="13" t="s">
-        <v>169</v>
-      </c>
+      <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -4620,10 +4438,10 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -4631,10 +4449,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -4642,61 +4460,61 @@
         <v>44</v>
       </c>
       <c r="B112" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="B113" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="B117" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="9" t="s">
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="9" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="14" t="s">
+      <c r="B120" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="B122" s="11"/>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -4704,10 +4522,10 @@
         <v>44</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -4715,10 +4533,10 @@
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -4726,10 +4544,10 @@
         <v>44</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -4737,21 +4555,21 @@
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="B133" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -4759,21 +4577,21 @@
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="A136" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -4781,21 +4599,21 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="14" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -4803,332 +4621,310 @@
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="14" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="11"/>
     </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="9" t="s">
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="A149" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="B150" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B148" s="9" t="s">
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="A152" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C149" s="10" t="s">
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="A153" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="12" t="s">
+      <c r="C153" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B153" s="12" t="s">
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="B154" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="178" customHeight="1">
+      <c r="B155" s="11"/>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="A157" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="13" t="s">
+      <c r="B157" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="A158" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="C158" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="14" t="s">
+    <row r="159" spans="1:3" ht="24" customHeight="1">
+      <c r="B159" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1">
+      <c r="B160" s="11"/>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="A162" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="A163" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B157" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="B158" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="178" customHeight="1">
-      <c r="B159" s="11"/>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="A161" s="9" t="s">
+      <c r="B163" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="C163" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="14" t="s">
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="B164" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1">
+      <c r="B165" s="11"/>
+    </row>
+    <row r="167" spans="1:3" ht="24" customHeight="1">
+      <c r="A167" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="A168" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="B163" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="11"/>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="A166" s="9" t="s">
+      <c r="B168" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="C168" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="14" t="s">
+    <row r="169" spans="1:3" ht="24" customHeight="1">
+      <c r="B169" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="24" customHeight="1">
+      <c r="B170" s="11"/>
+    </row>
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="A173" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24" customHeight="1">
+      <c r="B174" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="24" customHeight="1">
+      <c r="A176" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" ht="24" customHeight="1">
+      <c r="A177" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="B168" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="11"/>
-    </row>
-    <row r="171" spans="1:3" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
-      <c r="A172" s="14" t="s">
+      <c r="B177" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" ht="24" customHeight="1">
+      <c r="B178" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="178" customHeight="1">
+      <c r="B179" s="11"/>
+    </row>
+    <row r="181" spans="1:32" ht="24" customHeight="1">
+      <c r="A181" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="24" customHeight="1">
+      <c r="A182" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" ht="24" customHeight="1">
+      <c r="B183" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="24" customHeight="1">
+      <c r="B184" s="11"/>
+      <c r="AA184" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB184" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC184" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD184" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE184" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF184" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="24" customHeight="1">
+      <c r="A186" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="24" customHeight="1">
+      <c r="A187" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="B173" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11"/>
-    </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="180" spans="1:32" ht="24" customHeight="1">
-      <c r="A180" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="1:32" ht="24" customHeight="1">
-      <c r="A181" s="14" t="s">
+      <c r="B187" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" ht="24" customHeight="1">
+      <c r="B188" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="24" customHeight="1">
+      <c r="B189" s="11"/>
+    </row>
+    <row r="191" spans="1:32" ht="24" customHeight="1">
+      <c r="A191" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="24" customHeight="1">
+      <c r="A192" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="182" spans="1:32" ht="24" customHeight="1">
-      <c r="B182" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="183" spans="1:32" ht="178" customHeight="1">
-      <c r="B183" s="11"/>
-    </row>
-    <row r="185" spans="1:32" ht="24" customHeight="1">
-      <c r="A185" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:32" ht="24" customHeight="1">
-      <c r="A186" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="187" spans="1:32" ht="24" customHeight="1">
-      <c r="B187" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="11"/>
-      <c r="AA188" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB188" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC188" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD188" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE188" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF188" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="190" spans="1:32" ht="24" customHeight="1">
-      <c r="A190" s="9" t="s">
+      <c r="B192" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="C192" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="24" customHeight="1">
-      <c r="A191" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B191" s="10" t="s">
+    <row r="193" spans="1:3" ht="24" customHeight="1">
+      <c r="B193" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="24" customHeight="1">
+      <c r="B194" s="11"/>
+    </row>
+    <row r="196" spans="1:3" ht="24" customHeight="1">
+      <c r="A196" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="24" customHeight="1">
-      <c r="B192" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="24" customHeight="1">
-      <c r="B193" s="11"/>
-    </row>
-    <row r="195" spans="1:3" ht="24" customHeight="1">
-      <c r="A195" s="9" t="s">
+    <row r="197" spans="1:3" ht="24" customHeight="1">
+      <c r="A197" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="C197" s="10" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="B197" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="B198" s="11"/>
     </row>
-    <row r="200" spans="1:3" ht="24" customHeight="1">
-      <c r="A200" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="24" customHeight="1">
-      <c r="A201" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="24" customHeight="1">
-      <c r="B202" s="11"/>
-    </row>
   </sheetData>
-  <dataValidations count="22">
+  <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
@@ -5138,20 +4934,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AH30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AH31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AH32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AH33</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>AA34:AH34</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>AA38:AF38</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AF42</formula1>
+      <formula1>AA42:AB42</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>AA46:AB46</formula1>
@@ -5162,40 +4949,37 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
       <formula1>AA54:AB54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>AA58:AB58</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>AA70:AF70</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
-      <formula1>AA74:AF74</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B188">
-      <formula1>AA188:AF188</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
+      <formula1>AA184:AF184</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5219,20 +5003,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5243,10 +5027,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5254,10 +5038,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5265,15 +5049,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5281,98 +5065,98 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG19" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AH19" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AI19" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AJ19" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AK19" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AL19" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AM19" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AH19" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AL19" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="AN19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5380,127 +5164,123 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>298</v>
-      </c>
+      <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>313</v>
-      </c>
+      <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5541,20 +5321,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5565,10 +5345,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5576,10 +5356,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5587,15 +5367,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -5603,116 +5383,114 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="24" customHeight="1">
+      <c r="B23" s="11"/>
+      <c r="AA23" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="AH23" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5720,111 +5498,111 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5832,68 +5610,68 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5901,23 +5679,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5925,10 +5703,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5981,20 +5759,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6005,10 +5783,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6016,10 +5794,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -6027,15 +5805,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -6043,53 +5821,51 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>401</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6097,34 +5873,32 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>407</v>
-      </c>
+      <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6132,34 +5906,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6167,45 +5941,43 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6213,7 +5985,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6224,34 +5996,32 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11" t="s">
-        <v>430</v>
-      </c>
+      <c r="B47" s="11"/>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6262,27 +6032,27 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6290,10 +6060,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6301,20 +6071,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6325,40 +6095,36 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11" t="s">
-        <v>430</v>
-      </c>
+      <c r="B64" s="11"/>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B68" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6405,20 +6171,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6429,10 +6195,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6440,10 +6206,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -6451,15 +6217,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
@@ -6467,217 +6233,217 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6685,10 +6451,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6696,10 +6462,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6707,10 +6473,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6718,10 +6484,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6729,21 +6495,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6751,34 +6517,34 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6786,21 +6552,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6808,186 +6574,186 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6995,10 +6761,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7006,10 +6772,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7017,21 +6783,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7039,21 +6805,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7061,62 +6827,62 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7124,10 +6890,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7135,10 +6901,10 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
@@ -7146,10 +6912,10 @@
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7157,10 +6923,10 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
@@ -7243,20 +7009,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7267,10 +7033,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7278,10 +7044,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7289,15 +7055,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7305,34 +7071,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7340,85 +7106,83 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>598</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7426,21 +7190,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7448,10 +7212,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7459,98 +7223,94 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>617</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
-      <c r="B47" s="11" t="s">
-        <v>598</v>
-      </c>
+      <c r="B47" s="11"/>
       <c r="AA47" s="6" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7558,21 +7318,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7580,10 +7340,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7591,72 +7351,68 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11" t="s">
-        <v>617</v>
-      </c>
+      <c r="B59" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>640</v>
-      </c>
+      <c r="B67" s="11"/>
       <c r="AA67" s="6" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7664,34 +7420,32 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>647</v>
-      </c>
+      <c r="B71" s="11"/>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7699,21 +7453,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7721,79 +7475,77 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
-      <c r="B87" s="11" t="s">
-        <v>662</v>
-      </c>
+      <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="AG87" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7801,21 +7553,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7823,10 +7575,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7834,92 +7586,88 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="11" t="s">
-        <v>674</v>
-      </c>
+      <c r="B99" s="11"/>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
-      <c r="B107" s="11" t="s">
-        <v>662</v>
-      </c>
+      <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7927,10 +7675,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7938,10 +7686,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7949,10 +7697,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7960,16 +7708,14 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11" t="s">
-        <v>674</v>
-      </c>
+      <c r="B119" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="15">
@@ -8041,20 +7787,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8065,10 +7811,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8076,10 +7822,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -8087,15 +7833,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -8103,82 +7849,80 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>705</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8186,23 +7930,23 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
@@ -8210,15 +7954,15 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="178" customHeight="1">
@@ -8226,54 +7970,52 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>727</v>
-      </c>
+      <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8281,10 +8023,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8292,15 +8034,15 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
